--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -547,26 +547,26 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>279.1</v>
+        <v>262.67</v>
       </c>
       <c r="D2" t="n">
-        <v>7.0599976</v>
+        <v>-0.7799988</v>
       </c>
       <c r="E2" t="n">
-        <v>272.04</v>
+        <v>263.45</v>
       </c>
       <c r="F2" t="n">
-        <v>272.96</v>
+        <v>259.275</v>
       </c>
       <c r="G2" t="n">
-        <v>278.87</v>
+        <v>262.23</v>
       </c>
       <c r="H2" t="n">
-        <v>279.23</v>
+        <v>272.52</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>267.71 - 279.54</t>
+          <t>250.73 - 266.2499</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>93248500</v>
+        <v>101496505</v>
       </c>
       <c r="L2" t="n">
-        <v>85678636</v>
+        <v>86384041</v>
       </c>
       <c r="M2" t="n">
-        <v>897730740224</v>
+        <v>844883361792</v>
       </c>
       <c r="N2" t="n">
         <v>2.507</v>
       </c>
       <c r="O2" t="n">
-        <v>136.81374</v>
+        <v>128.13171</v>
       </c>
       <c r="P2" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>342.3445</v>
+        <v>345.63025</v>
       </c>
     </row>
     <row r="3">
@@ -623,26 +623,26 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>235.74</v>
+        <v>239.07</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.18998718</v>
+        <v>3.7400055</v>
       </c>
       <c r="E3" t="n">
-        <v>235.93</v>
+        <v>235.33</v>
       </c>
       <c r="F3" t="n">
-        <v>235.495</v>
+        <v>235.105</v>
       </c>
       <c r="G3" t="n">
-        <v>223.58</v>
+        <v>238.94</v>
       </c>
       <c r="H3" t="n">
-        <v>235.71</v>
+        <v>239.06</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>229.23 - 236.55</t>
+          <t>234.76 - 241.37</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -651,22 +651,22 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>46969202</v>
+        <v>45520263</v>
       </c>
       <c r="L3" t="n">
-        <v>51206431</v>
+        <v>51196990</v>
       </c>
       <c r="M3" t="n">
-        <v>3541310111744</v>
+        <v>3591333740544</v>
       </c>
       <c r="N3" t="n">
         <v>1.178</v>
       </c>
       <c r="O3" t="n">
-        <v>37.41905</v>
+        <v>37.88748</v>
       </c>
       <c r="P3" t="n">
-        <v>6.3</v>
+        <v>6.31</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -697,26 +697,26 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>401.02</v>
+        <v>393.31</v>
       </c>
       <c r="D4" t="n">
-        <v>12.410004</v>
+        <v>-3.580017</v>
       </c>
       <c r="E4" t="n">
-        <v>388.61</v>
+        <v>396.89</v>
       </c>
       <c r="F4" t="n">
-        <v>389.34</v>
+        <v>392.09</v>
       </c>
       <c r="G4" t="n">
-        <v>400.65</v>
+        <v>385.08</v>
       </c>
       <c r="H4" t="n">
-        <v>400.95</v>
+        <v>412.02</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>388.81 - 401.67</t>
+          <t>385.54 - 394.8</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -725,22 +725,22 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>23273389</v>
+        <v>21158694</v>
       </c>
       <c r="L4" t="n">
-        <v>22431143</v>
+        <v>22516368</v>
       </c>
       <c r="M4" t="n">
-        <v>2981174444032</v>
+        <v>2923858493440</v>
       </c>
       <c r="N4" t="n">
         <v>0.914</v>
       </c>
       <c r="O4" t="n">
-        <v>32.340324</v>
+        <v>31.641994</v>
       </c>
       <c r="P4" t="n">
-        <v>12.4</v>
+        <v>12.43</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -749,14 +749,14 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>3.32 (85.00%)</t>
+          <t>3.32 (84.00%)</t>
         </is>
       </c>
       <c r="S4" t="n">
         <v>1740009600</v>
       </c>
       <c r="T4" t="n">
-        <v>507.051</v>
+        <v>506.251</v>
       </c>
     </row>
     <row r="5">
@@ -771,47 +771,47 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>173.02</v>
+        <v>173.86</v>
       </c>
       <c r="D5" t="n">
-        <v>2.100006</v>
+        <v>1.5099945</v>
       </c>
       <c r="E5" t="n">
-        <v>170.92</v>
+        <v>172.35</v>
       </c>
       <c r="F5" t="n">
-        <v>170.49</v>
+        <v>171.26</v>
       </c>
       <c r="G5" t="n">
-        <v>172.95</v>
+        <v>166</v>
       </c>
       <c r="H5" t="n">
-        <v>173.05</v>
+        <v>183.3</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>169.06 - 173.78</t>
+          <t>170.27 - 174.97</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>130.85 - 207.05</t>
+          <t>136.13 - 207.05</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>29612808</v>
+        <v>27236708</v>
       </c>
       <c r="L5" t="n">
-        <v>30387165</v>
+        <v>30461265</v>
       </c>
       <c r="M5" t="n">
-        <v>2118526173184</v>
+        <v>2129750130688</v>
       </c>
       <c r="N5" t="n">
         <v>1.025</v>
       </c>
       <c r="O5" t="n">
-        <v>21.546701</v>
+        <v>21.651308</v>
       </c>
       <c r="P5" t="n">
         <v>8.029999999999999</v>
@@ -823,7 +823,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.8 (47.00%)</t>
+          <t>0.8 (46.00%)</t>
         </is>
       </c>
       <c r="S5" t="n">
@@ -845,26 +845,26 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>208.36</v>
+        <v>199.25</v>
       </c>
       <c r="D6" t="n">
-        <v>4.5599976</v>
+        <v>-1.449997</v>
       </c>
       <c r="E6" t="n">
-        <v>203.8</v>
+        <v>200.7</v>
       </c>
       <c r="F6" t="n">
-        <v>204.76</v>
+        <v>199.5</v>
       </c>
       <c r="G6" t="n">
-        <v>198.73</v>
+        <v>189.59</v>
       </c>
       <c r="H6" t="n">
-        <v>219.43</v>
+        <v>209.56</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>203.26 - 209.98</t>
+          <t>192.54 - 202.2653</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>38451584</v>
+        <v>58585210</v>
       </c>
       <c r="L6" t="n">
-        <v>36882286</v>
+        <v>37389396</v>
       </c>
       <c r="M6" t="n">
-        <v>2208136691712</v>
+        <v>2111591677952</v>
       </c>
       <c r="N6" t="n">
         <v>1.192</v>
       </c>
       <c r="O6" t="n">
-        <v>37.746376</v>
+        <v>35.965706</v>
       </c>
       <c r="P6" t="n">
-        <v>5.52</v>
+        <v>5.54</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -906,7 +906,7 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>265.58142</v>
+        <v>264.70642</v>
       </c>
     </row>
     <row r="7">
